--- a/data/echoMRI/Kotz05162025.xlsx
+++ b/data/echoMRI/Kotz05162025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB89F7D-C3E0-8E4E-929D-F83231CAE71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9EE28E5E-4C2D-A844-ADC2-21954F6A9EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{DFBD9CF3-1A3E-0A49-9FBF-39172D719078}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{DFBD9CF3-1A3E-0A49-9FBF-39172D719078}"/>
   </bookViews>
   <sheets>
     <sheet name="kotz05162025" sheetId="1" r:id="rId1"/>
@@ -926,9 +926,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325EE35B-222D-BD4A-ADC3-CC67D1B31168}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
